--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt1-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt1-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Fzd10</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,10 +555,10 @@
         <v>0.037021</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1810521476743106</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1810521476743105</v>
       </c>
       <c r="Q2">
         <v>0.005210816813</v>
@@ -564,10 +567,72 @@
         <v>0.046897351317</v>
       </c>
       <c r="S2">
+        <v>0.1810521476743106</v>
+      </c>
+      <c r="T2">
+        <v>0.1810521476743105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.422259</v>
+      </c>
+      <c r="H3">
+        <v>1.266777</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="T2">
+      <c r="J3">
         <v>1</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.05581866666666666</v>
+      </c>
+      <c r="N3">
+        <v>0.167456</v>
+      </c>
+      <c r="O3">
+        <v>0.8189478523256895</v>
+      </c>
+      <c r="P3">
+        <v>0.8189478523256895</v>
+      </c>
+      <c r="Q3">
+        <v>0.023569934368</v>
+      </c>
+      <c r="R3">
+        <v>0.212129409312</v>
+      </c>
+      <c r="S3">
+        <v>0.8189478523256895</v>
+      </c>
+      <c r="T3">
+        <v>0.8189478523256895</v>
       </c>
     </row>
   </sheetData>
